--- a/medicine/Sexualité et sexologie/Libido_TV/Libido_TV.xlsx
+++ b/medicine/Sexualité et sexologie/Libido_TV/Libido_TV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Libido TV est une chaîne de télévision luxembourgeoise pour adultes. Lancée le 1er mars 2011, elle est disponible exclusivement sur Canalsat (canal 212) en option. Ouverte de minuit à 5 heures du matin[1], son antenne se partage entre films pornographiques, principalement amateurs français, et parodies sexuelles d'émissions télévisées. Cette chaîne se veut « libertine, drôle et décomplexée »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libido TV est une chaîne de télévision luxembourgeoise pour adultes. Lancée le 1er mars 2011, elle est disponible exclusivement sur Canalsat (canal 212) en option. Ouverte de minuit à 5 heures du matin, son antenne se partage entre films pornographiques, principalement amateurs français, et parodies sexuelles d'émissions télévisées. Cette chaîne se veut « libertine, drôle et décomplexée ».
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Libido TV a été ajoutée au réseau Canalsat, en exclusivité, le 1er mars 2011[1]. Canalsat propose alors cette chaîne en option, soit seule, soit au sein d'un « pack Adulte »[1]. Le slogan de Libido TV, « La petite chaîne qui démonte », parodie l'ancien slogan de la chaîne française M6 (entre 1988 et 1997) : « M6, La petite chaîne qui monte, qui monte ! »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libido TV a été ajoutée au réseau Canalsat, en exclusivité, le 1er mars 2011. Canalsat propose alors cette chaîne en option, soit seule, soit au sein d'un « pack Adulte ». Le slogan de Libido TV, « La petite chaîne qui démonte », parodie l'ancien slogan de la chaîne française M6 (entre 1988 et 1997) : « M6, La petite chaîne qui monte, qui monte ! ».
 Libido TV a cessé d’émettre le 15 novembre 2021.
 </t>
         </is>
@@ -543,17 +557,19 @@
           <t>Programmes originaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Outre les films et programmes pornographiques qu'elle diffuse, Libido TV propose des programmes originaux, avec un ton plutôt humoristique voire parodique[4] :
-Astro Sexy : émission d'astrologie, présentée de façon sexy par Angela[2], puis par Sophie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Outre les films et programmes pornographiques qu'elle diffuse, Libido TV propose des programmes originaux, avec un ton plutôt humoristique voire parodique :
+Astro Sexy : émission d'astrologie, présentée de façon sexy par Angela, puis par Sophie.
 Casting BD : émission présentant des nouveautés de bande dessinée pornographique ou érotique, présentée par Luciano et Fiona.
 Culenta : émission parodiant Koh-Lanta.
-La Météo Sexy : bulletins météorologiques, présentés de façon sexy par Ophélie Marie (ancienne candidate de la saison 1 de Secret Story)[5].
+La Météo Sexy : bulletins météorologiques, présentés de façon sexy par Ophélie Marie (ancienne candidate de la saison 1 de Secret Story).
 Porn Story : émission de télé-réalité durant laquelle sept filles et sept garçons doivent « accomplir des missions sexuelles ».
 Reportages Interdits : émission de reportages inédits sur le libertinage ou l'échangisme.
-Le Télé @ Chattes : émission de télé-achat spécialisée dans les objets concernant la sexualité[4], testés à l'écran.
-Le TourNiké : jeu télévisé où quatre couples se font face dans des épreuves concernant la sexualité[4], présenté par Ophélie Marie[5].</t>
+Le Télé @ Chattes : émission de télé-achat spécialisée dans les objets concernant la sexualité, testés à l'écran.
+Le TourNiké : jeu télévisé où quatre couples se font face dans des épreuves concernant la sexualité, présenté par Ophélie Marie.</t>
         </is>
       </c>
     </row>
